--- a/Code/Results/Cases/Case_4_69/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_69/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.84365508787389</v>
+        <v>11.16212360072149</v>
       </c>
       <c r="C2">
-        <v>7.407184622393285</v>
+        <v>8.997184749546699</v>
       </c>
       <c r="D2">
-        <v>7.088804337972718</v>
+        <v>5.993441734664081</v>
       </c>
       <c r="E2">
-        <v>7.650190482588279</v>
+        <v>12.57908859020424</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>23.55973748261373</v>
+        <v>32.38793098899191</v>
       </c>
       <c r="H2">
-        <v>9.274185924635129</v>
+        <v>15.27700379955265</v>
       </c>
       <c r="I2">
-        <v>15.04951537180116</v>
+        <v>24.11912008977151</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.99086907708472</v>
+        <v>8.522939179416751</v>
       </c>
       <c r="L2">
-        <v>6.331133296782926</v>
+        <v>10.10912770418138</v>
       </c>
       <c r="M2">
-        <v>9.450737429414424</v>
+        <v>13.62370829188936</v>
       </c>
       <c r="N2">
-        <v>12.72379509773172</v>
+        <v>19.67275499075533</v>
       </c>
       <c r="O2">
-        <v>15.2432518999967</v>
+        <v>23.72373178646045</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.9882402680652</v>
+        <v>10.92759632035469</v>
       </c>
       <c r="C3">
-        <v>7.29470897599616</v>
+        <v>8.964629632435114</v>
       </c>
       <c r="D3">
-        <v>6.603277991539112</v>
+        <v>5.875806870923974</v>
       </c>
       <c r="E3">
-        <v>7.659866093469341</v>
+        <v>12.60703990700601</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>23.24901772515954</v>
+        <v>32.44464948828308</v>
       </c>
       <c r="H3">
-        <v>9.318641097588671</v>
+        <v>15.31836948212306</v>
       </c>
       <c r="I3">
-        <v>15.15167983327374</v>
+        <v>24.19763941321281</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.38792988482449</v>
+        <v>8.345253809873894</v>
       </c>
       <c r="L3">
-        <v>6.246658435489418</v>
+        <v>10.11622311993416</v>
       </c>
       <c r="M3">
-        <v>9.125625709730878</v>
+        <v>13.58991887115444</v>
       </c>
       <c r="N3">
-        <v>12.90513731536608</v>
+        <v>19.72840180504177</v>
       </c>
       <c r="O3">
-        <v>15.23318513631098</v>
+        <v>23.78807025818898</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.4315133932776</v>
+        <v>10.78288188850795</v>
       </c>
       <c r="C4">
-        <v>7.224694485792494</v>
+        <v>8.944364413130938</v>
       </c>
       <c r="D4">
-        <v>6.28948195362071</v>
+        <v>5.804091370565505</v>
       </c>
       <c r="E4">
-        <v>7.669284498591679</v>
+        <v>12.62580383905888</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23.07847042034328</v>
+        <v>32.48793354950428</v>
       </c>
       <c r="H4">
-        <v>9.350837710863406</v>
+        <v>15.34587325718655</v>
       </c>
       <c r="I4">
-        <v>15.22380186530678</v>
+        <v>24.24972035880861</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.998774090748437</v>
+        <v>8.235456326966728</v>
       </c>
       <c r="L4">
-        <v>6.196969738027294</v>
+        <v>10.12194505570041</v>
       </c>
       <c r="M4">
-        <v>8.92332021738304</v>
+        <v>13.57103818396861</v>
       </c>
       <c r="N4">
-        <v>13.01916106218798</v>
+        <v>19.76418889532107</v>
       </c>
       <c r="O4">
-        <v>15.23781625254349</v>
+        <v>23.83187820650405</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.19668534909806</v>
+        <v>10.72381383385396</v>
       </c>
       <c r="C5">
-        <v>7.195937876784645</v>
+        <v>8.936038598495632</v>
       </c>
       <c r="D5">
-        <v>6.176633129865538</v>
+        <v>5.775041152917074</v>
       </c>
       <c r="E5">
-        <v>7.673979840019801</v>
+        <v>12.63385341805638</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.01399656564613</v>
+        <v>32.50769462573356</v>
       </c>
       <c r="H5">
-        <v>9.365155111205363</v>
+        <v>15.35761084291542</v>
       </c>
       <c r="I5">
-        <v>15.25547551051179</v>
+        <v>24.27191676268567</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.835487877344274</v>
+        <v>8.190599076648358</v>
       </c>
       <c r="L5">
-        <v>6.177282358214622</v>
+        <v>10.12462073863641</v>
       </c>
       <c r="M5">
-        <v>8.840328227926866</v>
+        <v>13.56381898684896</v>
       </c>
       <c r="N5">
-        <v>13.06631659000848</v>
+        <v>19.77918087308655</v>
       </c>
       <c r="O5">
-        <v>15.24233807064199</v>
+        <v>23.85081155590889</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.15721067711446</v>
+        <v>10.71400233841871</v>
       </c>
       <c r="C6">
-        <v>7.191149708475955</v>
+        <v>8.934652077050153</v>
       </c>
       <c r="D6">
-        <v>6.157737257761243</v>
+        <v>5.770229259614384</v>
       </c>
       <c r="E6">
-        <v>7.674810769399694</v>
+        <v>12.63521440261817</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>23.00359206904618</v>
+        <v>32.51110398163986</v>
       </c>
       <c r="H6">
-        <v>9.367603787611213</v>
+        <v>15.359591851897</v>
       </c>
       <c r="I6">
-        <v>15.26087056245509</v>
+        <v>24.27566122266271</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.808092498190971</v>
+        <v>8.183145522347242</v>
       </c>
       <c r="L6">
-        <v>6.174047537239705</v>
+        <v>10.12508582426912</v>
       </c>
       <c r="M6">
-        <v>8.826518037463742</v>
+        <v>13.56264907947731</v>
       </c>
       <c r="N6">
-        <v>13.07418886439659</v>
+        <v>19.78169498284815</v>
       </c>
       <c r="O6">
-        <v>15.24324554915165</v>
+        <v>23.85402069889461</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.42837868704694</v>
+        <v>10.78208555137464</v>
       </c>
       <c r="C7">
-        <v>7.22430755576478</v>
+        <v>8.944252399395374</v>
       </c>
       <c r="D7">
-        <v>6.287970659405688</v>
+        <v>5.803698822458764</v>
       </c>
       <c r="E7">
-        <v>7.669344373368416</v>
+        <v>12.6259107657838</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.07758065149448</v>
+        <v>32.48819146706163</v>
       </c>
       <c r="H7">
-        <v>9.351025999592732</v>
+        <v>15.34602940983983</v>
       </c>
       <c r="I7">
-        <v>15.22421988364358</v>
+        <v>24.25001576776688</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.996590899176903</v>
+        <v>8.234851744758368</v>
       </c>
       <c r="L7">
-        <v>6.1967019384916</v>
+        <v>10.12197974748626</v>
       </c>
       <c r="M7">
-        <v>8.922203016814917</v>
+        <v>13.57093889365796</v>
       </c>
       <c r="N7">
-        <v>13.01979420350742</v>
+        <v>19.76438942705191</v>
       </c>
       <c r="O7">
-        <v>15.23786668023764</v>
+        <v>23.83212917168186</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.5552231178942</v>
+        <v>11.08145618128456</v>
       </c>
       <c r="C8">
-        <v>7.368609667177699</v>
+        <v>8.986018213580952</v>
       </c>
       <c r="D8">
-        <v>6.924950524964656</v>
+        <v>5.952801925285941</v>
       </c>
       <c r="E8">
-        <v>7.652794567925028</v>
+        <v>12.58839398975418</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23.44836903037077</v>
+        <v>32.405729433292</v>
       </c>
       <c r="H8">
-        <v>9.288475276558179</v>
+        <v>15.2908299212633</v>
       </c>
       <c r="I8">
-        <v>15.08274410705366</v>
+        <v>24.14539033355969</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.7869410683431</v>
+        <v>8.461854496380669</v>
       </c>
       <c r="L8">
-        <v>6.301562342386104</v>
+        <v>10.111291225985</v>
       </c>
       <c r="M8">
-        <v>9.339267739272948</v>
+        <v>13.61167382894678</v>
       </c>
       <c r="N8">
-        <v>12.78577591655395</v>
+        <v>19.69160653802712</v>
       </c>
       <c r="O8">
-        <v>15.2374866446033</v>
+        <v>23.74502185363618</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.51675079314401</v>
+        <v>11.65931751584053</v>
       </c>
       <c r="C9">
-        <v>7.643408037925377</v>
+        <v>9.065647382240751</v>
       </c>
       <c r="D9">
-        <v>8.042255640467307</v>
+        <v>6.247298067291521</v>
       </c>
       <c r="E9">
-        <v>7.648696456750185</v>
+        <v>12.52751635931496</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.33797571961429</v>
+        <v>32.31130781368673</v>
       </c>
       <c r="H9">
-        <v>9.206337937993803</v>
+        <v>15.19927618555748</v>
       </c>
       <c r="I9">
-        <v>14.88350061241617</v>
+        <v>23.97092868590932</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.18449628376136</v>
+        <v>8.898865931561781</v>
       </c>
       <c r="L9">
-        <v>6.523855411400083</v>
+        <v>10.10113480506534</v>
       </c>
       <c r="M9">
-        <v>10.13089895513008</v>
+        <v>13.70610280030449</v>
       </c>
       <c r="N9">
-        <v>12.34734632808298</v>
+        <v>19.56167762839343</v>
       </c>
       <c r="O9">
-        <v>15.32620784218367</v>
+        <v>23.6083957756946</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.80902345303645</v>
+        <v>12.07375312003061</v>
       </c>
       <c r="C10">
-        <v>7.839569012068091</v>
+        <v>9.122657829312072</v>
       </c>
       <c r="D10">
-        <v>8.782374083567966</v>
+        <v>6.462398305550569</v>
       </c>
       <c r="E10">
-        <v>7.664007654328373</v>
+        <v>12.49050503515833</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.09213955246477</v>
+        <v>32.28314024783277</v>
       </c>
       <c r="H10">
-        <v>9.173022719641946</v>
+        <v>15.14217313385143</v>
       </c>
       <c r="I10">
-        <v>14.79002534250975</v>
+        <v>23.86147704042617</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.11670329201721</v>
+        <v>9.211665057539257</v>
       </c>
       <c r="L10">
-        <v>6.696443044408201</v>
+        <v>10.10021659083516</v>
       </c>
       <c r="M10">
-        <v>10.69071462643378</v>
+        <v>13.78398104726978</v>
       </c>
       <c r="N10">
-        <v>12.03657666129588</v>
+        <v>19.47394454991281</v>
       </c>
       <c r="O10">
-        <v>15.45080852482604</v>
+        <v>23.52891409666657</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.36513510332921</v>
+        <v>12.2592156969436</v>
       </c>
       <c r="C11">
-        <v>7.92742380198874</v>
+        <v>9.148246267688551</v>
       </c>
       <c r="D11">
-        <v>9.101917886262576</v>
+        <v>6.559469472826556</v>
       </c>
       <c r="E11">
-        <v>7.675169453355108</v>
+        <v>12.47533800157597</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.45709744438732</v>
+        <v>32.27929448776849</v>
       </c>
       <c r="H11">
-        <v>9.164260033943934</v>
+        <v>15.11839880357473</v>
       </c>
       <c r="I11">
-        <v>14.76018028769893</v>
+        <v>23.81575173071348</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.52009907483208</v>
+        <v>9.351525073123682</v>
       </c>
       <c r="L11">
-        <v>6.776773412458017</v>
+        <v>10.10120920711553</v>
       </c>
       <c r="M11">
-        <v>10.93965118053393</v>
+        <v>13.82117071171585</v>
       </c>
       <c r="N11">
-        <v>11.89739805107912</v>
+        <v>19.43569377233455</v>
       </c>
       <c r="O11">
-        <v>15.52138552567844</v>
+        <v>23.49730326901241</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.57119954768014</v>
+        <v>12.3289372401256</v>
       </c>
       <c r="C12">
-        <v>7.960483323399662</v>
+        <v>9.157884185221171</v>
       </c>
       <c r="D12">
-        <v>9.220487619061494</v>
+        <v>6.596076071955196</v>
       </c>
       <c r="E12">
-        <v>7.680017070614811</v>
+        <v>12.46983430963465</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.59842978573191</v>
+        <v>32.27912787707689</v>
       </c>
       <c r="H12">
-        <v>9.161905789239487</v>
+        <v>15.10971251610069</v>
       </c>
       <c r="I12">
-        <v>14.7508040165677</v>
+        <v>23.79902141490437</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.66987921864924</v>
+        <v>9.404086990311484</v>
       </c>
       <c r="L12">
-        <v>6.807437390950797</v>
+        <v>10.10178684020561</v>
       </c>
       <c r="M12">
-        <v>11.0330238548144</v>
+        <v>13.83549918091191</v>
       </c>
       <c r="N12">
-        <v>11.84498721919942</v>
+        <v>19.42144662506634</v>
       </c>
       <c r="O12">
-        <v>15.55018627440952</v>
+        <v>23.48598739423022</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.52702035280275</v>
+        <v>12.31394513883243</v>
       </c>
       <c r="C13">
-        <v>7.953372825976869</v>
+        <v>9.155810828049416</v>
       </c>
       <c r="D13">
-        <v>9.195059296149532</v>
+        <v>6.588199567742405</v>
       </c>
       <c r="E13">
-        <v>7.678945160792821</v>
+        <v>12.47100897169666</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.56785243884481</v>
+        <v>32.27910640839835</v>
       </c>
       <c r="H13">
-        <v>9.16236921880018</v>
+        <v>15.11156918765611</v>
       </c>
       <c r="I13">
-        <v>14.75273606900266</v>
+        <v>23.80259857009235</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.63775379634641</v>
+        <v>9.392785394355725</v>
       </c>
       <c r="L13">
-        <v>6.800822742055446</v>
+        <v>10.1016534812815</v>
       </c>
       <c r="M13">
-        <v>11.01295516809085</v>
+        <v>13.83240249649533</v>
       </c>
       <c r="N13">
-        <v>11.85626215985726</v>
+        <v>19.42450445251862</v>
       </c>
       <c r="O13">
-        <v>15.54389005564824</v>
+        <v>23.48839535182983</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.38217854834647</v>
+        <v>12.2649623081127</v>
       </c>
       <c r="C14">
-        <v>7.930147878420081</v>
+        <v>9.149040236698564</v>
       </c>
       <c r="D14">
-        <v>9.111721306795591</v>
+        <v>6.562484390906382</v>
       </c>
       <c r="E14">
-        <v>7.675555727398267</v>
+        <v>12.47488040696616</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.46866231798694</v>
+        <v>32.27925493589805</v>
       </c>
       <c r="H14">
-        <v>9.164046768362486</v>
+        <v>15.11767783439831</v>
       </c>
       <c r="I14">
-        <v>14.759369711022</v>
+        <v>23.81436359395982</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.53248124612406</v>
+        <v>9.355857665895318</v>
       </c>
       <c r="L14">
-        <v>6.77929135012505</v>
+        <v>10.10125269226483</v>
       </c>
       <c r="M14">
-        <v>10.94735129715058</v>
+        <v>13.82234464852932</v>
       </c>
       <c r="N14">
-        <v>11.89308043757311</v>
+        <v>19.43451689513756</v>
       </c>
       <c r="O14">
-        <v>15.52371297151781</v>
+        <v>23.49635918476502</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.29287101963359</v>
+        <v>12.23489066208154</v>
       </c>
       <c r="C15">
-        <v>7.915894386735439</v>
+        <v>9.144886235910846</v>
       </c>
       <c r="D15">
-        <v>9.060358235522264</v>
+        <v>6.546712135819812</v>
       </c>
       <c r="E15">
-        <v>7.673560971868115</v>
+        <v>12.47728298263184</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.40831259762507</v>
+        <v>32.2795138569856</v>
       </c>
       <c r="H15">
-        <v>9.165201204973068</v>
+        <v>15.12146077522327</v>
       </c>
       <c r="I15">
-        <v>14.76368684343665</v>
+        <v>23.82164618808306</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.46761103851143</v>
+        <v>9.333184840629164</v>
       </c>
       <c r="L15">
-        <v>6.766134107937106</v>
+        <v>10.10103343872672</v>
       </c>
       <c r="M15">
-        <v>10.90704865350636</v>
+        <v>13.81621566501067</v>
       </c>
       <c r="N15">
-        <v>11.91567018698784</v>
+        <v>19.44068071635286</v>
       </c>
       <c r="O15">
-        <v>15.51162634120577</v>
+        <v>23.50132251360922</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.77204498077156</v>
+        <v>12.06156507226922</v>
       </c>
       <c r="C16">
-        <v>7.833798782357661</v>
+        <v>9.120978422425354</v>
       </c>
       <c r="D16">
-        <v>8.761148805194861</v>
+        <v>6.456035320621484</v>
       </c>
       <c r="E16">
-        <v>7.663364145999036</v>
+        <v>12.49152980339917</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.06872786922795</v>
+        <v>32.28357206637115</v>
       </c>
       <c r="H16">
-        <v>9.173727814697338</v>
+        <v>15.14377114397111</v>
       </c>
       <c r="I16">
-        <v>14.79223957355028</v>
+        <v>23.8645471214194</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.08992393251224</v>
+        <v>9.202471547366191</v>
       </c>
       <c r="L16">
-        <v>6.691228414572047</v>
+        <v>10.10018001226099</v>
       </c>
       <c r="M16">
-        <v>10.67432452826069</v>
+        <v>13.78158541279967</v>
       </c>
       <c r="N16">
-        <v>12.04571455639706</v>
+        <v>19.4764776317813</v>
       </c>
       <c r="O16">
-        <v>15.44648238578373</v>
+        <v>23.5310714807617</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.44443319045067</v>
+        <v>11.95440015840845</v>
       </c>
       <c r="C17">
-        <v>7.783074353625732</v>
+        <v>9.106221646875602</v>
       </c>
       <c r="D17">
-        <v>8.573224792596701</v>
+        <v>6.400179266570028</v>
       </c>
       <c r="E17">
-        <v>7.658196054326107</v>
+        <v>12.50069714624149</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>24.86599999111885</v>
+        <v>32.28835892255839</v>
       </c>
       <c r="H17">
-        <v>9.18062736457599</v>
+        <v>15.15802176257696</v>
       </c>
       <c r="I17">
-        <v>14.81307462593457</v>
+        <v>23.89190679961408</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.85292545912017</v>
+        <v>9.121623149153562</v>
       </c>
       <c r="L17">
-        <v>6.645729984766732</v>
+        <v>10.1000169572803</v>
       </c>
       <c r="M17">
-        <v>10.53003557547682</v>
+        <v>13.76078676451458</v>
       </c>
       <c r="N17">
-        <v>12.12603863551422</v>
+        <v>19.49886216369538</v>
       </c>
       <c r="O17">
-        <v>15.41013315528491</v>
+        <v>23.55048638459026</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.25300851126416</v>
+        <v>11.89247691959272</v>
       </c>
       <c r="C18">
-        <v>7.753769700954405</v>
+        <v>9.097701509846781</v>
       </c>
       <c r="D18">
-        <v>8.463520748949117</v>
+        <v>6.367981282910224</v>
       </c>
       <c r="E18">
-        <v>7.65561748817814</v>
+        <v>12.50612713243416</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>24.75145780149022</v>
+        <v>32.29195634136968</v>
       </c>
       <c r="H18">
-        <v>9.185194750469362</v>
+        <v>15.1664256249068</v>
       </c>
       <c r="I18">
-        <v>14.82624532520212</v>
+        <v>23.90802593958731</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.71466447112431</v>
+        <v>9.074894986844653</v>
       </c>
       <c r="L18">
-        <v>6.619732748215215</v>
+        <v>10.10005598617106</v>
       </c>
       <c r="M18">
-        <v>10.44650895775312</v>
+        <v>13.74899031460712</v>
       </c>
       <c r="N18">
-        <v>12.17244664356434</v>
+        <v>19.51189340983777</v>
       </c>
       <c r="O18">
-        <v>15.39052956483694</v>
+        <v>23.56208115495042</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.18768040958839</v>
+        <v>11.87146400882713</v>
       </c>
       <c r="C19">
-        <v>7.743825788364991</v>
+        <v>9.094811232737039</v>
       </c>
       <c r="D19">
-        <v>8.426098540637343</v>
+        <v>6.357068652979672</v>
       </c>
       <c r="E19">
-        <v>7.654811562480742</v>
+        <v>12.5079926375575</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24.71303021309912</v>
+        <v>32.29331932832903</v>
       </c>
       <c r="H19">
-        <v>9.186842714711474</v>
+        <v>15.16930663323751</v>
       </c>
       <c r="I19">
-        <v>14.83090548239749</v>
+        <v>23.91354930044032</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.66751775372491</v>
+        <v>9.059036345291419</v>
       </c>
       <c r="L19">
-        <v>6.610960639528667</v>
+        <v>10.10009204224116</v>
       </c>
       <c r="M19">
-        <v>10.4181386420001</v>
+        <v>13.74502505121838</v>
       </c>
       <c r="N19">
-        <v>12.18819592905478</v>
+        <v>19.51633243456125</v>
       </c>
       <c r="O19">
-        <v>15.38411362211039</v>
+        <v>23.56608039977589</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.47961728116022</v>
+        <v>11.96583803187691</v>
       </c>
       <c r="C20">
-        <v>7.788487519737052</v>
+        <v>9.107795902620412</v>
       </c>
       <c r="D20">
-        <v>8.593396567753164</v>
+        <v>6.406132890851479</v>
       </c>
       <c r="E20">
-        <v>7.658705303817349</v>
+        <v>12.49970500263196</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>24.8873674525672</v>
+        <v>32.28776198354124</v>
       </c>
       <c r="H20">
-        <v>9.179830586608039</v>
+        <v>15.15648330774941</v>
       </c>
       <c r="I20">
-        <v>14.8107331241493</v>
+        <v>23.88895471731764</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.87835578359245</v>
+        <v>9.130253393567047</v>
       </c>
       <c r="L20">
-        <v>6.650555666718877</v>
+        <v>10.10002057638336</v>
       </c>
       <c r="M20">
-        <v>10.54545134021887</v>
+        <v>13.76298365237854</v>
       </c>
       <c r="N20">
-        <v>12.11746665820559</v>
+        <v>19.49646312772299</v>
       </c>
       <c r="O20">
-        <v>15.41386711807607</v>
+        <v>23.54837534999474</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.42484450447853</v>
+        <v>12.27936409099876</v>
       </c>
       <c r="C21">
-        <v>7.936975365472229</v>
+        <v>9.151030348186914</v>
       </c>
       <c r="D21">
-        <v>9.136265524210055</v>
+        <v>6.570041999610631</v>
       </c>
       <c r="E21">
-        <v>7.676534297929393</v>
+        <v>12.47373676914554</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.49771206265363</v>
+        <v>32.27917631158847</v>
       </c>
       <c r="H21">
-        <v>9.163527506308506</v>
+        <v>15.11587498715629</v>
       </c>
       <c r="I21">
-        <v>14.75736816364654</v>
+        <v>23.81089204536075</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.56348314796452</v>
+        <v>9.366715474179825</v>
       </c>
       <c r="L21">
-        <v>6.785609136856811</v>
+        <v>10.10136494704212</v>
       </c>
       <c r="M21">
-        <v>10.96664552649479</v>
+        <v>13.82529228243466</v>
       </c>
       <c r="N21">
-        <v>11.88225824501316</v>
+        <v>19.43156955803897</v>
       </c>
       <c r="O21">
-        <v>15.52958256665614</v>
+        <v>23.49400224647443</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.01626237187511</v>
+        <v>12.48127557813138</v>
       </c>
       <c r="C22">
-        <v>8.03279735939339</v>
+        <v>9.178983237175441</v>
       </c>
       <c r="D22">
-        <v>9.476885760787173</v>
+        <v>6.676262240298679</v>
       </c>
       <c r="E22">
-        <v>7.691813480377757</v>
+        <v>12.45816220859038</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>25.91484331376033</v>
+        <v>32.28108177764108</v>
       </c>
       <c r="H22">
-        <v>9.158513001341026</v>
+        <v>15.09118004790711</v>
       </c>
       <c r="I22">
-        <v>14.73376339131911</v>
+        <v>23.76328278599119</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.99390310513033</v>
+        <v>9.518904527278801</v>
       </c>
       <c r="L22">
-        <v>6.875292610411118</v>
+        <v>10.10341898305203</v>
       </c>
       <c r="M22">
-        <v>11.29674844615032</v>
+        <v>13.86744196863706</v>
       </c>
       <c r="N22">
-        <v>11.73023313088905</v>
+        <v>19.39054225507099</v>
       </c>
       <c r="O22">
-        <v>15.61733594680186</v>
+        <v>23.46228125347362</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.7030075300776</v>
+        <v>12.37380710319012</v>
       </c>
       <c r="C23">
-        <v>7.98177054211733</v>
+        <v>9.164092712266047</v>
       </c>
       <c r="D23">
-        <v>9.29637728646159</v>
+        <v>6.619665875863072</v>
       </c>
       <c r="E23">
-        <v>7.683321142165422</v>
+        <v>12.46634692310261</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25.69055118896663</v>
+        <v>32.27937722502002</v>
       </c>
       <c r="H23">
-        <v>9.160658137622745</v>
+        <v>15.10419143353621</v>
       </c>
       <c r="I23">
-        <v>14.74529568414858</v>
+        <v>23.78838068562584</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.76576731650077</v>
+        <v>9.43790930500997</v>
       </c>
       <c r="L23">
-        <v>6.827302593012692</v>
+        <v>10.10221552377894</v>
       </c>
       <c r="M23">
-        <v>11.10204442212328</v>
+        <v>13.84481796184994</v>
       </c>
       <c r="N23">
-        <v>11.81122413557098</v>
+        <v>19.41231296517653</v>
       </c>
       <c r="O23">
-        <v>15.56936623568875</v>
+        <v>23.47886204538879</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.4637201389398</v>
+        <v>11.96066793804434</v>
       </c>
       <c r="C24">
-        <v>7.786040670371571</v>
+        <v>9.107084294421686</v>
       </c>
       <c r="D24">
-        <v>8.584282093542756</v>
+        <v>6.40344152085417</v>
       </c>
       <c r="E24">
-        <v>7.658473850462244</v>
+        <v>12.50015305373051</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>24.87770096521231</v>
+        <v>32.28802922636875</v>
       </c>
       <c r="H24">
-        <v>9.180188942122152</v>
+        <v>15.15717818593935</v>
       </c>
       <c r="I24">
-        <v>14.81178801092339</v>
+        <v>23.89028813987311</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.86686498609147</v>
+        <v>9.12635242663697</v>
       </c>
       <c r="L24">
-        <v>6.648373474949007</v>
+        <v>10.10001852654369</v>
       </c>
       <c r="M24">
-        <v>10.53848365219452</v>
+        <v>13.76198993737699</v>
       </c>
       <c r="N24">
-        <v>12.12134133537179</v>
+        <v>19.49754722693169</v>
       </c>
       <c r="O24">
-        <v>15.41217496861181</v>
+        <v>23.54932840039324</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.01242857467914</v>
+        <v>11.50445595608644</v>
       </c>
       <c r="C25">
-        <v>7.570023873409533</v>
+        <v>9.044359982740692</v>
       </c>
       <c r="D25">
-        <v>7.754305324695329</v>
+        <v>6.167672585416279</v>
       </c>
       <c r="E25">
-        <v>7.646661725534863</v>
+        <v>12.54262878837252</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24.07970214337917</v>
+        <v>32.32962537163719</v>
       </c>
       <c r="H25">
-        <v>9.223984168398637</v>
+        <v>15.22225836237916</v>
       </c>
       <c r="I25">
-        <v>14.92850148243542</v>
+        <v>24.01483714600732</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.82294735314087</v>
+        <v>8.78186678806264</v>
       </c>
       <c r="L25">
-        <v>6.46202496428285</v>
+        <v>10.10272985208042</v>
       </c>
       <c r="M25">
-        <v>9.920191962304429</v>
+        <v>13.67903637796074</v>
       </c>
       <c r="N25">
-        <v>12.46387516160807</v>
+        <v>19.5954646490466</v>
       </c>
       <c r="O25">
-        <v>15.29211574088368</v>
+        <v>23.6416904420245</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_69/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_69/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.16212360072149</v>
+        <v>12.84365508787386</v>
       </c>
       <c r="C2">
-        <v>8.997184749546699</v>
+        <v>7.407184622393527</v>
       </c>
       <c r="D2">
-        <v>5.993441734664081</v>
+        <v>7.088804337972718</v>
       </c>
       <c r="E2">
-        <v>12.57908859020424</v>
+        <v>7.650190482588405</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>32.38793098899191</v>
+        <v>23.55973748261379</v>
       </c>
       <c r="H2">
-        <v>15.27700379955265</v>
+        <v>9.274185924635141</v>
       </c>
       <c r="I2">
-        <v>24.11912008977151</v>
+        <v>15.04951537180121</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.522939179416751</v>
+        <v>10.99086907708471</v>
       </c>
       <c r="L2">
-        <v>10.10912770418138</v>
+        <v>6.331133296782977</v>
       </c>
       <c r="M2">
-        <v>13.62370829188936</v>
+        <v>9.450737429414469</v>
       </c>
       <c r="N2">
-        <v>19.67275499075533</v>
+        <v>12.72379509773172</v>
       </c>
       <c r="O2">
-        <v>23.72373178646045</v>
+        <v>15.24325189999675</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.92759632035469</v>
+        <v>11.9882402680652</v>
       </c>
       <c r="C3">
-        <v>8.964629632435114</v>
+        <v>7.294708975995623</v>
       </c>
       <c r="D3">
-        <v>5.875806870923974</v>
+        <v>6.60327799153915</v>
       </c>
       <c r="E3">
-        <v>12.60703990700601</v>
+        <v>7.659866093469233</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>32.44464948828308</v>
+        <v>23.24901772515999</v>
       </c>
       <c r="H3">
-        <v>15.31836948212306</v>
+        <v>9.318641097588843</v>
       </c>
       <c r="I3">
-        <v>24.19763941321281</v>
+        <v>15.15167983327389</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.345253809873894</v>
+        <v>10.38792988482437</v>
       </c>
       <c r="L3">
-        <v>10.11622311993416</v>
+        <v>6.246658435489405</v>
       </c>
       <c r="M3">
-        <v>13.58991887115444</v>
+        <v>9.125625709730915</v>
       </c>
       <c r="N3">
-        <v>19.72840180504177</v>
+        <v>12.90513731536622</v>
       </c>
       <c r="O3">
-        <v>23.78807025818898</v>
+        <v>15.23318513631128</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.78288188850795</v>
+        <v>11.4315133932776</v>
       </c>
       <c r="C4">
-        <v>8.944364413130938</v>
+        <v>7.224694485792248</v>
       </c>
       <c r="D4">
-        <v>5.804091370565505</v>
+        <v>6.289481953620754</v>
       </c>
       <c r="E4">
-        <v>12.62580383905888</v>
+        <v>7.669284498591559</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.48793354950428</v>
+        <v>23.07847042034341</v>
       </c>
       <c r="H4">
-        <v>15.34587325718655</v>
+        <v>9.350837710863416</v>
       </c>
       <c r="I4">
-        <v>24.24972035880861</v>
+        <v>15.22380186530685</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.235456326966728</v>
+        <v>9.998774090748459</v>
       </c>
       <c r="L4">
-        <v>10.12194505570041</v>
+        <v>6.196969738027193</v>
       </c>
       <c r="M4">
-        <v>13.57103818396861</v>
+        <v>8.923320217383008</v>
       </c>
       <c r="N4">
-        <v>19.76418889532107</v>
+        <v>13.01916106218802</v>
       </c>
       <c r="O4">
-        <v>23.83187820650405</v>
+        <v>15.23781625254357</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.72381383385396</v>
+        <v>11.19668534909805</v>
       </c>
       <c r="C5">
-        <v>8.936038598495632</v>
+        <v>7.195937876784638</v>
       </c>
       <c r="D5">
-        <v>5.775041152917074</v>
+        <v>6.176633129865554</v>
       </c>
       <c r="E5">
-        <v>12.63385341805638</v>
+        <v>7.673979840019863</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.50769462573356</v>
+        <v>23.01399656564613</v>
       </c>
       <c r="H5">
-        <v>15.35761084291542</v>
+        <v>9.365155111205363</v>
       </c>
       <c r="I5">
-        <v>24.27191676268567</v>
+        <v>15.25547551051179</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.190599076648358</v>
+        <v>9.83548787734428</v>
       </c>
       <c r="L5">
-        <v>10.12462073863641</v>
+        <v>6.177282358214642</v>
       </c>
       <c r="M5">
-        <v>13.56381898684896</v>
+        <v>8.840328227926884</v>
       </c>
       <c r="N5">
-        <v>19.77918087308655</v>
+        <v>13.06631659000848</v>
       </c>
       <c r="O5">
-        <v>23.85081155590889</v>
+        <v>15.24233807064199</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.71400233841871</v>
+        <v>11.15721067711455</v>
       </c>
       <c r="C6">
-        <v>8.934652077050153</v>
+        <v>7.191149708475569</v>
       </c>
       <c r="D6">
-        <v>5.770229259614384</v>
+        <v>6.157737257761249</v>
       </c>
       <c r="E6">
-        <v>12.63521440261817</v>
+        <v>7.674810769399515</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.51110398163986</v>
+        <v>23.00359206904619</v>
       </c>
       <c r="H6">
-        <v>15.359591851897</v>
+        <v>9.367603787611159</v>
       </c>
       <c r="I6">
-        <v>24.27566122266271</v>
+        <v>15.26087056245498</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.183145522347242</v>
+        <v>9.808092498190977</v>
       </c>
       <c r="L6">
-        <v>10.12508582426912</v>
+        <v>6.174047537239699</v>
       </c>
       <c r="M6">
-        <v>13.56264907947731</v>
+        <v>8.826518037463691</v>
       </c>
       <c r="N6">
-        <v>19.78169498284815</v>
+        <v>13.07418886439655</v>
       </c>
       <c r="O6">
-        <v>23.85402069889461</v>
+        <v>15.24324554915162</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.78208555137464</v>
+        <v>11.42837868704696</v>
       </c>
       <c r="C7">
-        <v>8.944252399395374</v>
+        <v>7.224307555764652</v>
       </c>
       <c r="D7">
-        <v>5.803698822458764</v>
+        <v>6.28797065940573</v>
       </c>
       <c r="E7">
-        <v>12.6259107657838</v>
+        <v>7.669344373368419</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.48819146706163</v>
+        <v>23.0775806514945</v>
       </c>
       <c r="H7">
-        <v>15.34602940983983</v>
+        <v>9.351025999592684</v>
       </c>
       <c r="I7">
-        <v>24.25001576776688</v>
+        <v>15.22421988364351</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.234851744758368</v>
+        <v>9.996590899176908</v>
       </c>
       <c r="L7">
-        <v>10.12197974748626</v>
+        <v>6.196701938491624</v>
       </c>
       <c r="M7">
-        <v>13.57093889365796</v>
+        <v>8.922203016814919</v>
       </c>
       <c r="N7">
-        <v>19.76438942705191</v>
+        <v>13.01979420350738</v>
       </c>
       <c r="O7">
-        <v>23.83212917168186</v>
+        <v>15.2378666802376</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.08145618128456</v>
+        <v>12.55522311789427</v>
       </c>
       <c r="C8">
-        <v>8.986018213580952</v>
+        <v>7.36860966717769</v>
       </c>
       <c r="D8">
-        <v>5.952801925285941</v>
+        <v>6.924950524964611</v>
       </c>
       <c r="E8">
-        <v>12.58839398975418</v>
+        <v>7.652794567924974</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>32.405729433292</v>
+        <v>23.44836903037076</v>
       </c>
       <c r="H8">
-        <v>15.2908299212633</v>
+        <v>9.28847527655819</v>
       </c>
       <c r="I8">
-        <v>24.14539033355969</v>
+        <v>15.0827441070536</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.461854496380669</v>
+        <v>10.78694106834315</v>
       </c>
       <c r="L8">
-        <v>10.111291225985</v>
+        <v>6.301562342386048</v>
       </c>
       <c r="M8">
-        <v>13.61167382894678</v>
+        <v>9.33926773927292</v>
       </c>
       <c r="N8">
-        <v>19.69160653802712</v>
+        <v>12.78577591655395</v>
       </c>
       <c r="O8">
-        <v>23.74502185363618</v>
+        <v>15.23748664460325</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.65931751584053</v>
+        <v>14.51675079314407</v>
       </c>
       <c r="C9">
-        <v>9.065647382240751</v>
+        <v>7.643408037925149</v>
       </c>
       <c r="D9">
-        <v>6.247298067291521</v>
+        <v>8.042255640467326</v>
       </c>
       <c r="E9">
-        <v>12.52751635931496</v>
+        <v>7.648696456750133</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>32.31130781368673</v>
+        <v>24.33797571961406</v>
       </c>
       <c r="H9">
-        <v>15.19927618555748</v>
+        <v>9.206337937993796</v>
       </c>
       <c r="I9">
-        <v>23.97092868590932</v>
+        <v>14.88350061241606</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.898865931561781</v>
+        <v>12.18449628376136</v>
       </c>
       <c r="L9">
-        <v>10.10113480506534</v>
+        <v>6.523855411400042</v>
       </c>
       <c r="M9">
-        <v>13.70610280030449</v>
+        <v>10.13089895513007</v>
       </c>
       <c r="N9">
-        <v>19.56167762839343</v>
+        <v>12.34734632808288</v>
       </c>
       <c r="O9">
-        <v>23.6083957756946</v>
+        <v>15.32620784218354</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.07375312003061</v>
+        <v>15.80902345303649</v>
       </c>
       <c r="C10">
-        <v>9.122657829312072</v>
+        <v>7.839569012068099</v>
       </c>
       <c r="D10">
-        <v>6.462398305550569</v>
+        <v>8.782374083567925</v>
       </c>
       <c r="E10">
-        <v>12.49050503515833</v>
+        <v>7.664007654328321</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>32.28314024783277</v>
+        <v>25.09213955246448</v>
       </c>
       <c r="H10">
-        <v>15.14217313385143</v>
+        <v>9.173022719641827</v>
       </c>
       <c r="I10">
-        <v>23.86147704042617</v>
+        <v>14.79002534250956</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.211665057539257</v>
+        <v>13.11670329201728</v>
       </c>
       <c r="L10">
-        <v>10.10021659083516</v>
+        <v>6.696443044408196</v>
       </c>
       <c r="M10">
-        <v>13.78398104726978</v>
+        <v>10.69071462643375</v>
       </c>
       <c r="N10">
-        <v>19.47394454991281</v>
+        <v>12.03657666129578</v>
       </c>
       <c r="O10">
-        <v>23.52891409666657</v>
+        <v>15.45080852482582</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.2592156969436</v>
+        <v>16.36513510332924</v>
       </c>
       <c r="C11">
-        <v>9.148246267688551</v>
+        <v>7.927423801988599</v>
       </c>
       <c r="D11">
-        <v>6.559469472826556</v>
+        <v>9.101917886262582</v>
       </c>
       <c r="E11">
-        <v>12.47533800157597</v>
+        <v>7.675169453355111</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>32.27929448776849</v>
+        <v>25.45709744438724</v>
       </c>
       <c r="H11">
-        <v>15.11839880357473</v>
+        <v>9.164260033943934</v>
       </c>
       <c r="I11">
-        <v>23.81575173071348</v>
+        <v>14.7601802876989</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.351525073123682</v>
+        <v>13.52009907483211</v>
       </c>
       <c r="L11">
-        <v>10.10120920711553</v>
+        <v>6.77677341245803</v>
       </c>
       <c r="M11">
-        <v>13.82117071171585</v>
+        <v>10.93965118053392</v>
       </c>
       <c r="N11">
-        <v>19.43569377233455</v>
+        <v>11.89739805107912</v>
       </c>
       <c r="O11">
-        <v>23.49730326901241</v>
+        <v>15.52138552567843</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.3289372401256</v>
+        <v>16.57119954768012</v>
       </c>
       <c r="C12">
-        <v>9.157884185221171</v>
+        <v>7.96048332339976</v>
       </c>
       <c r="D12">
-        <v>6.596076071955196</v>
+        <v>9.220487619061494</v>
       </c>
       <c r="E12">
-        <v>12.46983430963465</v>
+        <v>7.680017070614809</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>32.27912787707689</v>
+        <v>25.59842978573215</v>
       </c>
       <c r="H12">
-        <v>15.10971251610069</v>
+        <v>9.161905789239587</v>
       </c>
       <c r="I12">
-        <v>23.79902141490437</v>
+        <v>14.75080401656784</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.404086990311484</v>
+        <v>13.66987921864923</v>
       </c>
       <c r="L12">
-        <v>10.10178684020561</v>
+        <v>6.807437390950775</v>
       </c>
       <c r="M12">
-        <v>13.83549918091191</v>
+        <v>11.03302385481441</v>
       </c>
       <c r="N12">
-        <v>19.42144662506634</v>
+        <v>11.84498721919952</v>
       </c>
       <c r="O12">
-        <v>23.48598739423022</v>
+        <v>15.55018627440966</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.31394513883243</v>
+        <v>16.52702035280275</v>
       </c>
       <c r="C13">
-        <v>9.155810828049416</v>
+        <v>7.953372825977222</v>
       </c>
       <c r="D13">
-        <v>6.588199567742405</v>
+        <v>9.195059296149443</v>
       </c>
       <c r="E13">
-        <v>12.47100897169666</v>
+        <v>7.678945160792868</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>32.27910640839835</v>
+        <v>25.56785243884486</v>
       </c>
       <c r="H13">
-        <v>15.11156918765611</v>
+        <v>9.162369218800141</v>
       </c>
       <c r="I13">
-        <v>23.80259857009235</v>
+        <v>14.75273606900261</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.392785394355725</v>
+        <v>13.63775379634647</v>
       </c>
       <c r="L13">
-        <v>10.1016534812815</v>
+        <v>6.800822742055439</v>
       </c>
       <c r="M13">
-        <v>13.83240249649533</v>
+        <v>11.01295516809085</v>
       </c>
       <c r="N13">
-        <v>19.42450445251862</v>
+        <v>11.85626215985723</v>
       </c>
       <c r="O13">
-        <v>23.48839535182983</v>
+        <v>15.54389005564817</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.2649623081127</v>
+        <v>16.38217854834639</v>
       </c>
       <c r="C14">
-        <v>9.149040236698564</v>
+        <v>7.930147878419824</v>
       </c>
       <c r="D14">
-        <v>6.562484390906382</v>
+        <v>9.111721306795536</v>
       </c>
       <c r="E14">
-        <v>12.47488040696616</v>
+        <v>7.675555727398282</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>32.27925493589805</v>
+        <v>25.46866231798709</v>
       </c>
       <c r="H14">
-        <v>15.11767783439831</v>
+        <v>9.164046768362542</v>
       </c>
       <c r="I14">
-        <v>23.81436359395982</v>
+        <v>14.75936971102217</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.355857665895318</v>
+        <v>13.53248124612398</v>
       </c>
       <c r="L14">
-        <v>10.10125269226483</v>
+        <v>6.779291350125065</v>
       </c>
       <c r="M14">
-        <v>13.82234464852932</v>
+        <v>10.94735129715063</v>
       </c>
       <c r="N14">
-        <v>19.43451689513756</v>
+        <v>11.89308043757311</v>
       </c>
       <c r="O14">
-        <v>23.49635918476502</v>
+        <v>15.52371297151793</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.23489066208154</v>
+        <v>16.29287101963365</v>
       </c>
       <c r="C15">
-        <v>9.144886235910846</v>
+        <v>7.915894386735317</v>
       </c>
       <c r="D15">
-        <v>6.546712135819812</v>
+        <v>9.06035823552233</v>
       </c>
       <c r="E15">
-        <v>12.47728298263184</v>
+        <v>7.67356097186812</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>32.2795138569856</v>
+        <v>25.40831259762497</v>
       </c>
       <c r="H15">
-        <v>15.12146077522327</v>
+        <v>9.165201204973073</v>
       </c>
       <c r="I15">
-        <v>23.82164618808306</v>
+        <v>14.76368684343655</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.333184840629164</v>
+        <v>13.46761103851148</v>
       </c>
       <c r="L15">
-        <v>10.10103343872672</v>
+        <v>6.766134107937118</v>
       </c>
       <c r="M15">
-        <v>13.81621566501067</v>
+        <v>10.90704865350636</v>
       </c>
       <c r="N15">
-        <v>19.44068071635286</v>
+        <v>11.91567018698778</v>
       </c>
       <c r="O15">
-        <v>23.50132251360922</v>
+        <v>15.51162634120569</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.06156507226922</v>
+        <v>15.77204498077157</v>
       </c>
       <c r="C16">
-        <v>9.120978422425354</v>
+        <v>7.833798782357766</v>
       </c>
       <c r="D16">
-        <v>6.456035320621484</v>
+        <v>8.76114880519488</v>
       </c>
       <c r="E16">
-        <v>12.49152980339917</v>
+        <v>7.663364145999044</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>32.28357206637115</v>
+        <v>25.06872786922786</v>
       </c>
       <c r="H16">
-        <v>15.14377114397111</v>
+        <v>9.17372781469729</v>
       </c>
       <c r="I16">
-        <v>23.8645471214194</v>
+        <v>14.79223957355027</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.202471547366191</v>
+        <v>13.08992393251225</v>
       </c>
       <c r="L16">
-        <v>10.10018001226099</v>
+        <v>6.691228414572017</v>
       </c>
       <c r="M16">
-        <v>13.78158541279967</v>
+        <v>10.67432452826068</v>
       </c>
       <c r="N16">
-        <v>19.4764776317813</v>
+        <v>12.04571455639702</v>
       </c>
       <c r="O16">
-        <v>23.5310714807617</v>
+        <v>15.44648238578365</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.95440015840845</v>
+        <v>15.44443319045061</v>
       </c>
       <c r="C17">
-        <v>9.106221646875602</v>
+        <v>7.783074353625866</v>
       </c>
       <c r="D17">
-        <v>6.400179266570028</v>
+        <v>8.573224792596637</v>
       </c>
       <c r="E17">
-        <v>12.50069714624149</v>
+        <v>7.658196054326146</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>32.28835892255839</v>
+        <v>24.86599999111898</v>
       </c>
       <c r="H17">
-        <v>15.15802176257696</v>
+        <v>9.180627364576099</v>
       </c>
       <c r="I17">
-        <v>23.89190679961408</v>
+        <v>14.81307462593472</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.121623149153562</v>
+        <v>12.85292545912014</v>
       </c>
       <c r="L17">
-        <v>10.1000169572803</v>
+        <v>6.645729984766735</v>
       </c>
       <c r="M17">
-        <v>13.76078676451458</v>
+        <v>10.53003557547684</v>
       </c>
       <c r="N17">
-        <v>19.49886216369538</v>
+        <v>12.12603863551429</v>
       </c>
       <c r="O17">
-        <v>23.55048638459026</v>
+        <v>15.41013315528502</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.89247691959272</v>
+        <v>15.25300851126415</v>
       </c>
       <c r="C18">
-        <v>9.097701509846781</v>
+        <v>7.753769700954397</v>
       </c>
       <c r="D18">
-        <v>6.367981282910224</v>
+        <v>8.463520748949014</v>
       </c>
       <c r="E18">
-        <v>12.50612713243416</v>
+        <v>7.655617488178193</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>32.29195634136968</v>
+        <v>24.75145780149037</v>
       </c>
       <c r="H18">
-        <v>15.1664256249068</v>
+        <v>9.185194750469408</v>
       </c>
       <c r="I18">
-        <v>23.90802593958731</v>
+        <v>14.82624532520225</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.074894986844653</v>
+        <v>12.71466447112431</v>
       </c>
       <c r="L18">
-        <v>10.10005598617106</v>
+        <v>6.619732748215249</v>
       </c>
       <c r="M18">
-        <v>13.74899031460712</v>
+        <v>10.44650895775316</v>
       </c>
       <c r="N18">
-        <v>19.51189340983777</v>
+        <v>12.17244664356444</v>
       </c>
       <c r="O18">
-        <v>23.56208115495042</v>
+        <v>15.39052956483702</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.87146400882713</v>
+        <v>15.1876804095884</v>
       </c>
       <c r="C19">
-        <v>9.094811232737039</v>
+        <v>7.74382578836495</v>
       </c>
       <c r="D19">
-        <v>6.357068652979672</v>
+        <v>8.426098540637291</v>
       </c>
       <c r="E19">
-        <v>12.5079926375575</v>
+        <v>7.654811562480806</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>32.29331932832903</v>
+        <v>24.71303021309899</v>
       </c>
       <c r="H19">
-        <v>15.16930663323751</v>
+        <v>9.186842714711474</v>
       </c>
       <c r="I19">
-        <v>23.91354930044032</v>
+        <v>14.83090548239748</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.059036345291419</v>
+        <v>12.66751775372487</v>
       </c>
       <c r="L19">
-        <v>10.10009204224116</v>
+        <v>6.610960639528711</v>
       </c>
       <c r="M19">
-        <v>13.74502505121838</v>
+        <v>10.41813864200011</v>
       </c>
       <c r="N19">
-        <v>19.51633243456125</v>
+        <v>12.18819592905475</v>
       </c>
       <c r="O19">
-        <v>23.56608039977589</v>
+        <v>15.38411362211035</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.96583803187691</v>
+        <v>15.4796172811602</v>
       </c>
       <c r="C20">
-        <v>9.107795902620412</v>
+        <v>7.78848751973691</v>
       </c>
       <c r="D20">
-        <v>6.406132890851479</v>
+        <v>8.5933965677531</v>
       </c>
       <c r="E20">
-        <v>12.49970500263196</v>
+        <v>7.658705303817243</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>32.28776198354124</v>
+        <v>24.88736745256739</v>
       </c>
       <c r="H20">
-        <v>15.15648330774941</v>
+        <v>9.179830586608087</v>
       </c>
       <c r="I20">
-        <v>23.88895471731764</v>
+        <v>14.81073312414939</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.130253393567047</v>
+        <v>12.87835578359241</v>
       </c>
       <c r="L20">
-        <v>10.10002057638336</v>
+        <v>6.650555666718802</v>
       </c>
       <c r="M20">
-        <v>13.76298365237854</v>
+        <v>10.54545134021884</v>
       </c>
       <c r="N20">
-        <v>19.49646312772299</v>
+        <v>12.11746665820566</v>
       </c>
       <c r="O20">
-        <v>23.54837534999474</v>
+        <v>15.41386711807618</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.27936409099876</v>
+        <v>16.42484450447864</v>
       </c>
       <c r="C21">
-        <v>9.151030348186914</v>
+        <v>7.936975365472468</v>
       </c>
       <c r="D21">
-        <v>6.570041999610631</v>
+        <v>9.136265524209914</v>
       </c>
       <c r="E21">
-        <v>12.47373676914554</v>
+        <v>7.676534297929403</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>32.27917631158847</v>
+        <v>25.49771206265357</v>
       </c>
       <c r="H21">
-        <v>15.11587498715629</v>
+        <v>9.163527506308517</v>
       </c>
       <c r="I21">
-        <v>23.81089204536075</v>
+        <v>14.75736816364654</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.366715474179825</v>
+        <v>13.56348314796462</v>
       </c>
       <c r="L21">
-        <v>10.10136494704212</v>
+        <v>6.785609136856813</v>
       </c>
       <c r="M21">
-        <v>13.82529228243466</v>
+        <v>10.96664552649477</v>
       </c>
       <c r="N21">
-        <v>19.43156955803897</v>
+        <v>11.88225824501319</v>
       </c>
       <c r="O21">
-        <v>23.49400224647443</v>
+        <v>15.52958256665613</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.48127557813138</v>
+        <v>17.01626237187505</v>
       </c>
       <c r="C22">
-        <v>9.178983237175441</v>
+        <v>8.032797359393635</v>
       </c>
       <c r="D22">
-        <v>6.676262240298679</v>
+        <v>9.476885760787061</v>
       </c>
       <c r="E22">
-        <v>12.45816220859038</v>
+        <v>7.691813480377801</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>32.28108177764108</v>
+        <v>25.91484331376022</v>
       </c>
       <c r="H22">
-        <v>15.09118004790711</v>
+        <v>9.158513001341026</v>
       </c>
       <c r="I22">
-        <v>23.76328278599119</v>
+        <v>14.73376339131912</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.518904527278801</v>
+        <v>13.99390310513036</v>
       </c>
       <c r="L22">
-        <v>10.10341898305203</v>
+        <v>6.875292610411081</v>
       </c>
       <c r="M22">
-        <v>13.86744196863706</v>
+        <v>11.29674844615033</v>
       </c>
       <c r="N22">
-        <v>19.39054225507099</v>
+        <v>11.73023313088902</v>
       </c>
       <c r="O22">
-        <v>23.46228125347362</v>
+        <v>15.61733594680181</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.37380710319012</v>
+        <v>16.70300753007757</v>
       </c>
       <c r="C23">
-        <v>9.164092712266047</v>
+        <v>7.98177054211754</v>
       </c>
       <c r="D23">
-        <v>6.619665875863072</v>
+        <v>9.296377286461565</v>
       </c>
       <c r="E23">
-        <v>12.46634692310261</v>
+        <v>7.683321142165385</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>32.27937722502002</v>
+        <v>25.69055118896674</v>
       </c>
       <c r="H23">
-        <v>15.10419143353621</v>
+        <v>9.160658137622802</v>
       </c>
       <c r="I23">
-        <v>23.78838068562584</v>
+        <v>14.7452956841487</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.43790930500997</v>
+        <v>13.76576731650071</v>
       </c>
       <c r="L23">
-        <v>10.10221552377894</v>
+        <v>6.827302593012656</v>
       </c>
       <c r="M23">
-        <v>13.84481796184994</v>
+        <v>11.10204442212329</v>
       </c>
       <c r="N23">
-        <v>19.41231296517653</v>
+        <v>11.81122413557104</v>
       </c>
       <c r="O23">
-        <v>23.47886204538879</v>
+        <v>15.56936623568886</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.96066793804434</v>
+        <v>15.46372013893982</v>
       </c>
       <c r="C24">
-        <v>9.107084294421686</v>
+        <v>7.786040670371559</v>
       </c>
       <c r="D24">
-        <v>6.40344152085417</v>
+        <v>8.584282093542654</v>
       </c>
       <c r="E24">
-        <v>12.50015305373051</v>
+        <v>7.658473850462247</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>32.28802922636875</v>
+        <v>24.87770096521226</v>
       </c>
       <c r="H24">
-        <v>15.15717818593935</v>
+        <v>9.180188942122202</v>
       </c>
       <c r="I24">
-        <v>23.89028813987311</v>
+        <v>14.81178801092339</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.12635242663697</v>
+        <v>12.86686498609147</v>
       </c>
       <c r="L24">
-        <v>10.10001852654369</v>
+        <v>6.648373474949029</v>
       </c>
       <c r="M24">
-        <v>13.76198993737699</v>
+        <v>10.53848365219452</v>
       </c>
       <c r="N24">
-        <v>19.49754722693169</v>
+        <v>12.12134133537179</v>
       </c>
       <c r="O24">
-        <v>23.54932840039324</v>
+        <v>15.41217496861181</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.50445595608644</v>
+        <v>14.01242857467915</v>
       </c>
       <c r="C25">
-        <v>9.044359982740692</v>
+        <v>7.570023873409509</v>
       </c>
       <c r="D25">
-        <v>6.167672585416279</v>
+        <v>7.754305324695393</v>
       </c>
       <c r="E25">
-        <v>12.54262878837252</v>
+        <v>7.646661725534757</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>32.32962537163719</v>
+        <v>24.07970214337915</v>
       </c>
       <c r="H25">
-        <v>15.22225836237916</v>
+        <v>9.22398416839858</v>
       </c>
       <c r="I25">
-        <v>24.01483714600732</v>
+        <v>14.92850148243534</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.78186678806264</v>
+        <v>11.82294735314082</v>
       </c>
       <c r="L25">
-        <v>10.10272985208042</v>
+        <v>6.462024964282818</v>
       </c>
       <c r="M25">
-        <v>13.67903637796074</v>
+        <v>9.920191962304415</v>
       </c>
       <c r="N25">
-        <v>19.5954646490466</v>
+        <v>12.463875161608</v>
       </c>
       <c r="O25">
-        <v>23.6416904420245</v>
+        <v>15.29211574088362</v>
       </c>
     </row>
   </sheetData>
